--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="支出" sheetId="1" r:id="rId1"/>
-    <sheet name="收入" sheetId="2" r:id="rId2"/>
+    <sheet name="账目明细" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -20,110 +19,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
   </si>
   <si>
+    <t>所剩余额</t>
+  </si>
+  <si>
     <t>金额</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>发生人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额借贷说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动资金注资 - 严飞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动资金注资 - 周行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动资金注资 - 戴伟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动资金注资 - 代雷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>域名ycg.im</t>
-  </si>
-  <si>
-    <t>严飞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>域名yaocai.pro</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前端外包-移动端-首款</t>
-  </si>
-  <si>
-    <t>周雄军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公司注册+半年代税</t>
-  </si>
-  <si>
-    <t>蚂蚁创业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前端外包-移动端-交付页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>视觉设计-首款</t>
-  </si>
-  <si>
-    <t>鸿雁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PC端前端外包-首款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>严飞武汉去上海</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>严飞上海回武汉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴伟往返亳州-高铁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴伟往返亳州-开车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴伟、严飞上海住宿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪达短信通道试用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>严飞去上海第1晚住宿</t>
-  </si>
-  <si>
-    <t>阿里旅行</t>
-  </si>
-  <si>
-    <t>戴伟往返亳州-高铁</t>
-  </si>
-  <si>
-    <t>戴伟</t>
-  </si>
-  <si>
-    <t>戴伟往返亳州-开车</t>
-  </si>
-  <si>
-    <t>戴伟、严飞上海住宿</t>
-  </si>
-  <si>
-    <t>总支出：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动资金注资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪达短信通道试用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>账目明细表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,16 +134,70 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,28 +205,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,364 +611,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="2" customWidth="1"/>
+    <col min="5" max="254" width="9" style="1"/>
+    <col min="255" max="255" width="17" style="1" customWidth="1"/>
+    <col min="256" max="256" width="47.125" style="1" customWidth="1"/>
+    <col min="257" max="257" width="16.625" style="1" customWidth="1"/>
+    <col min="258" max="258" width="25.875" style="1" customWidth="1"/>
+    <col min="259" max="259" width="25.625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="30.125" style="1" customWidth="1"/>
+    <col min="261" max="510" width="9" style="1"/>
+    <col min="511" max="511" width="17" style="1" customWidth="1"/>
+    <col min="512" max="512" width="47.125" style="1" customWidth="1"/>
+    <col min="513" max="513" width="16.625" style="1" customWidth="1"/>
+    <col min="514" max="514" width="25.875" style="1" customWidth="1"/>
+    <col min="515" max="515" width="25.625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="30.125" style="1" customWidth="1"/>
+    <col min="517" max="766" width="9" style="1"/>
+    <col min="767" max="767" width="17" style="1" customWidth="1"/>
+    <col min="768" max="768" width="47.125" style="1" customWidth="1"/>
+    <col min="769" max="769" width="16.625" style="1" customWidth="1"/>
+    <col min="770" max="770" width="25.875" style="1" customWidth="1"/>
+    <col min="771" max="771" width="25.625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="30.125" style="1" customWidth="1"/>
+    <col min="773" max="1022" width="9" style="1"/>
+    <col min="1023" max="1023" width="17" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="47.125" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="16.625" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="25.875" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="25.625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="30.125" style="1" customWidth="1"/>
+    <col min="1029" max="1278" width="9" style="1"/>
+    <col min="1279" max="1279" width="17" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="47.125" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="16.625" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="25.875" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="25.625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="30.125" style="1" customWidth="1"/>
+    <col min="1285" max="1534" width="9" style="1"/>
+    <col min="1535" max="1535" width="17" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="47.125" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="16.625" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="25.875" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="25.625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="30.125" style="1" customWidth="1"/>
+    <col min="1541" max="1790" width="9" style="1"/>
+    <col min="1791" max="1791" width="17" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="47.125" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="16.625" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="25.875" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="25.625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="30.125" style="1" customWidth="1"/>
+    <col min="1797" max="2046" width="9" style="1"/>
+    <col min="2047" max="2047" width="17" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="47.125" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="16.625" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="25.875" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="25.625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="30.125" style="1" customWidth="1"/>
+    <col min="2053" max="2302" width="9" style="1"/>
+    <col min="2303" max="2303" width="17" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="47.125" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="16.625" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="25.875" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="25.625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="30.125" style="1" customWidth="1"/>
+    <col min="2309" max="2558" width="9" style="1"/>
+    <col min="2559" max="2559" width="17" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="47.125" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="16.625" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="25.875" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="25.625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="30.125" style="1" customWidth="1"/>
+    <col min="2565" max="2814" width="9" style="1"/>
+    <col min="2815" max="2815" width="17" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="47.125" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="16.625" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="25.875" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="25.625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="30.125" style="1" customWidth="1"/>
+    <col min="2821" max="3070" width="9" style="1"/>
+    <col min="3071" max="3071" width="17" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="47.125" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="16.625" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="25.875" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="25.625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="30.125" style="1" customWidth="1"/>
+    <col min="3077" max="3326" width="9" style="1"/>
+    <col min="3327" max="3327" width="17" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="47.125" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="16.625" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="25.875" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="25.625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="30.125" style="1" customWidth="1"/>
+    <col min="3333" max="3582" width="9" style="1"/>
+    <col min="3583" max="3583" width="17" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="47.125" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="16.625" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="25.875" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="25.625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="30.125" style="1" customWidth="1"/>
+    <col min="3589" max="3838" width="9" style="1"/>
+    <col min="3839" max="3839" width="17" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="47.125" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="16.625" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="25.875" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="25.625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="30.125" style="1" customWidth="1"/>
+    <col min="3845" max="4094" width="9" style="1"/>
+    <col min="4095" max="4095" width="17" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="47.125" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="16.625" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="25.875" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="25.625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="30.125" style="1" customWidth="1"/>
+    <col min="4101" max="4350" width="9" style="1"/>
+    <col min="4351" max="4351" width="17" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="47.125" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="16.625" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="25.875" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="25.625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="30.125" style="1" customWidth="1"/>
+    <col min="4357" max="4606" width="9" style="1"/>
+    <col min="4607" max="4607" width="17" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="47.125" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="16.625" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="25.875" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="25.625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="30.125" style="1" customWidth="1"/>
+    <col min="4613" max="4862" width="9" style="1"/>
+    <col min="4863" max="4863" width="17" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="47.125" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="16.625" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="25.875" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="25.625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="30.125" style="1" customWidth="1"/>
+    <col min="4869" max="5118" width="9" style="1"/>
+    <col min="5119" max="5119" width="17" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="47.125" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="16.625" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="25.875" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="25.625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="30.125" style="1" customWidth="1"/>
+    <col min="5125" max="5374" width="9" style="1"/>
+    <col min="5375" max="5375" width="17" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="47.125" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="16.625" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="25.875" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="25.625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="30.125" style="1" customWidth="1"/>
+    <col min="5381" max="5630" width="9" style="1"/>
+    <col min="5631" max="5631" width="17" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="47.125" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="16.625" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="25.875" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="25.625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="30.125" style="1" customWidth="1"/>
+    <col min="5637" max="5886" width="9" style="1"/>
+    <col min="5887" max="5887" width="17" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="47.125" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="16.625" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="25.875" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="25.625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="30.125" style="1" customWidth="1"/>
+    <col min="5893" max="6142" width="9" style="1"/>
+    <col min="6143" max="6143" width="17" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="47.125" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="16.625" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="25.875" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="25.625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="30.125" style="1" customWidth="1"/>
+    <col min="6149" max="6398" width="9" style="1"/>
+    <col min="6399" max="6399" width="17" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="47.125" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="16.625" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="25.875" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="25.625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="30.125" style="1" customWidth="1"/>
+    <col min="6405" max="6654" width="9" style="1"/>
+    <col min="6655" max="6655" width="17" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="47.125" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="16.625" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="25.875" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="25.625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="30.125" style="1" customWidth="1"/>
+    <col min="6661" max="6910" width="9" style="1"/>
+    <col min="6911" max="6911" width="17" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="47.125" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="16.625" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="25.875" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="25.625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="30.125" style="1" customWidth="1"/>
+    <col min="6917" max="7166" width="9" style="1"/>
+    <col min="7167" max="7167" width="17" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="47.125" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="16.625" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="25.875" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="25.625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="30.125" style="1" customWidth="1"/>
+    <col min="7173" max="7422" width="9" style="1"/>
+    <col min="7423" max="7423" width="17" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="47.125" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="16.625" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="25.875" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="25.625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="30.125" style="1" customWidth="1"/>
+    <col min="7429" max="7678" width="9" style="1"/>
+    <col min="7679" max="7679" width="17" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="47.125" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="16.625" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="25.875" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="25.625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="30.125" style="1" customWidth="1"/>
+    <col min="7685" max="7934" width="9" style="1"/>
+    <col min="7935" max="7935" width="17" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="47.125" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="16.625" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="25.875" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="25.625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="30.125" style="1" customWidth="1"/>
+    <col min="7941" max="8190" width="9" style="1"/>
+    <col min="8191" max="8191" width="17" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="47.125" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="16.625" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="25.875" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="25.625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="30.125" style="1" customWidth="1"/>
+    <col min="8197" max="8446" width="9" style="1"/>
+    <col min="8447" max="8447" width="17" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="47.125" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="16.625" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="25.875" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="25.625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="30.125" style="1" customWidth="1"/>
+    <col min="8453" max="8702" width="9" style="1"/>
+    <col min="8703" max="8703" width="17" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="47.125" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="16.625" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="25.875" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="25.625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="30.125" style="1" customWidth="1"/>
+    <col min="8709" max="8958" width="9" style="1"/>
+    <col min="8959" max="8959" width="17" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="47.125" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="16.625" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="25.875" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="25.625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="30.125" style="1" customWidth="1"/>
+    <col min="8965" max="9214" width="9" style="1"/>
+    <col min="9215" max="9215" width="17" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="47.125" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="16.625" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="25.875" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="25.625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="30.125" style="1" customWidth="1"/>
+    <col min="9221" max="9470" width="9" style="1"/>
+    <col min="9471" max="9471" width="17" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="47.125" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="16.625" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="25.875" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="25.625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="30.125" style="1" customWidth="1"/>
+    <col min="9477" max="9726" width="9" style="1"/>
+    <col min="9727" max="9727" width="17" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="47.125" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="16.625" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="25.875" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="25.625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="30.125" style="1" customWidth="1"/>
+    <col min="9733" max="9982" width="9" style="1"/>
+    <col min="9983" max="9983" width="17" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="47.125" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="16.625" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="25.875" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="25.625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="30.125" style="1" customWidth="1"/>
+    <col min="9989" max="10238" width="9" style="1"/>
+    <col min="10239" max="10239" width="17" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="47.125" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="16.625" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="25.875" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="25.625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="30.125" style="1" customWidth="1"/>
+    <col min="10245" max="10494" width="9" style="1"/>
+    <col min="10495" max="10495" width="17" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="47.125" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="16.625" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="25.875" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="25.625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="30.125" style="1" customWidth="1"/>
+    <col min="10501" max="10750" width="9" style="1"/>
+    <col min="10751" max="10751" width="17" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="47.125" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="16.625" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="25.875" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="25.625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="30.125" style="1" customWidth="1"/>
+    <col min="10757" max="11006" width="9" style="1"/>
+    <col min="11007" max="11007" width="17" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="47.125" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="16.625" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="25.875" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="25.625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="30.125" style="1" customWidth="1"/>
+    <col min="11013" max="11262" width="9" style="1"/>
+    <col min="11263" max="11263" width="17" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="47.125" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="16.625" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="25.875" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="25.625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="30.125" style="1" customWidth="1"/>
+    <col min="11269" max="11518" width="9" style="1"/>
+    <col min="11519" max="11519" width="17" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="47.125" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="16.625" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="25.875" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="25.625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="30.125" style="1" customWidth="1"/>
+    <col min="11525" max="11774" width="9" style="1"/>
+    <col min="11775" max="11775" width="17" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="47.125" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="16.625" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="25.875" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="25.625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="30.125" style="1" customWidth="1"/>
+    <col min="11781" max="12030" width="9" style="1"/>
+    <col min="12031" max="12031" width="17" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="47.125" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="16.625" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="25.875" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="25.625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="30.125" style="1" customWidth="1"/>
+    <col min="12037" max="12286" width="9" style="1"/>
+    <col min="12287" max="12287" width="17" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="47.125" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="16.625" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="25.875" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="25.625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="30.125" style="1" customWidth="1"/>
+    <col min="12293" max="12542" width="9" style="1"/>
+    <col min="12543" max="12543" width="17" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="47.125" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="16.625" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="25.875" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="25.625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="30.125" style="1" customWidth="1"/>
+    <col min="12549" max="12798" width="9" style="1"/>
+    <col min="12799" max="12799" width="17" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="47.125" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="16.625" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="25.875" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="25.625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="30.125" style="1" customWidth="1"/>
+    <col min="12805" max="13054" width="9" style="1"/>
+    <col min="13055" max="13055" width="17" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="47.125" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="16.625" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="25.875" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="25.625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="30.125" style="1" customWidth="1"/>
+    <col min="13061" max="13310" width="9" style="1"/>
+    <col min="13311" max="13311" width="17" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="47.125" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="16.625" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="25.875" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="25.625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="30.125" style="1" customWidth="1"/>
+    <col min="13317" max="13566" width="9" style="1"/>
+    <col min="13567" max="13567" width="17" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="47.125" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="16.625" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="25.875" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="25.625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="30.125" style="1" customWidth="1"/>
+    <col min="13573" max="13822" width="9" style="1"/>
+    <col min="13823" max="13823" width="17" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="47.125" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="16.625" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="25.875" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="25.625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="30.125" style="1" customWidth="1"/>
+    <col min="13829" max="14078" width="9" style="1"/>
+    <col min="14079" max="14079" width="17" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="47.125" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="16.625" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="25.875" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="25.625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="30.125" style="1" customWidth="1"/>
+    <col min="14085" max="14334" width="9" style="1"/>
+    <col min="14335" max="14335" width="17" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="47.125" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="16.625" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="25.875" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="25.625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="30.125" style="1" customWidth="1"/>
+    <col min="14341" max="14590" width="9" style="1"/>
+    <col min="14591" max="14591" width="17" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="47.125" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="16.625" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="25.875" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="25.625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="30.125" style="1" customWidth="1"/>
+    <col min="14597" max="14846" width="9" style="1"/>
+    <col min="14847" max="14847" width="17" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="47.125" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="16.625" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="25.875" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="25.625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="30.125" style="1" customWidth="1"/>
+    <col min="14853" max="15102" width="9" style="1"/>
+    <col min="15103" max="15103" width="17" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="47.125" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="16.625" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="25.875" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="25.625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="30.125" style="1" customWidth="1"/>
+    <col min="15109" max="15358" width="9" style="1"/>
+    <col min="15359" max="15359" width="17" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="47.125" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="16.625" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="25.875" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="25.625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="30.125" style="1" customWidth="1"/>
+    <col min="15365" max="15614" width="9" style="1"/>
+    <col min="15615" max="15615" width="17" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="47.125" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="16.625" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="25.875" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="25.625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="30.125" style="1" customWidth="1"/>
+    <col min="15621" max="15870" width="9" style="1"/>
+    <col min="15871" max="15871" width="17" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="47.125" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="16.625" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="25.875" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="25.625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="30.125" style="1" customWidth="1"/>
+    <col min="15877" max="16126" width="9" style="1"/>
+    <col min="16127" max="16127" width="17" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="47.125" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="16.625" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="25.875" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="25.625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="30.125" style="1" customWidth="1"/>
+    <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1">
-        <f>SUM(B2:B15)</f>
-        <v>10295.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>35000</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D5+C6</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>25000</v>
+      </c>
+      <c r="D7" s="7">
+        <f>D6+C7</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="3">
+        <f>D7+C8</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
         <v>42334</v>
       </c>
-      <c r="B2" s="1">
-        <v>180</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-180</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D8+C9</f>
+        <v>99820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
         <v>42334</v>
       </c>
-      <c r="B3" s="1">
-        <v>780</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-780</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D9+C10</f>
+        <v>99040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
         <v>42395</v>
       </c>
-      <c r="B4" s="1">
-        <v>500</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D10+C11</f>
+        <v>98540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
         <v>42396</v>
       </c>
-      <c r="B5" s="1">
-        <v>3800</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-3800</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D11+C12</f>
+        <v>94740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
         <v>42404</v>
       </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D12+C13</f>
+        <v>93740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
         <v>42424</v>
       </c>
-      <c r="B7" s="1">
-        <v>800</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="C14" s="4">
+        <v>-800</v>
+      </c>
+      <c r="D14" s="3">
+        <f>D13+C14</f>
+        <v>92940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
         <v>42426</v>
       </c>
-      <c r="B8" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="C15" s="4">
+        <v>-1300</v>
+      </c>
+      <c r="D15" s="3">
+        <f>D14+C15</f>
+        <v>91640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
         <v>42423</v>
       </c>
-      <c r="B9" s="1">
-        <v>262</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="C16" s="4">
+        <v>-262</v>
+      </c>
+      <c r="D16" s="3">
+        <f>D15+C16</f>
+        <v>91378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
         <v>42425</v>
       </c>
-      <c r="B10" s="1">
-        <v>254.5</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="C17" s="4">
+        <v>-254.5</v>
+      </c>
+      <c r="D17" s="3">
+        <f>D16+C17</f>
+        <v>91123.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6">
         <v>42423</v>
       </c>
-      <c r="B11" s="1">
-        <v>119</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-119</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D17+C18</f>
+        <v>91004.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6">
+        <v>42421</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C19" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:D22" si="0">D18+C19</f>
+        <v>90504.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
+        <v>42421</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>42421</v>
-      </c>
-      <c r="B12" s="1">
-        <v>500</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C20" s="4">
+        <v>-200</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>90304.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <v>42425</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C21" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>89804.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>42421</v>
-      </c>
-      <c r="B13" s="1">
-        <v>200</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>42425</v>
-      </c>
-      <c r="B14" s="1">
-        <v>500</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
+      <c r="C22" s="4">
+        <v>-100</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>89704.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1">
-        <f>SUM(B2:B5)</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B2" s="1">
-        <v>35000</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B4" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -109,6 +109,10 @@
   <si>
     <t>账目明细表</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端-尾款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -289,10 +293,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,11 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1069,32 +1073,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1139,7 +1143,7 @@
         <v>35000</v>
       </c>
       <c r="D6" s="3">
-        <f>D5+C6</f>
+        <f t="shared" ref="D6:D18" si="0">D5+C6</f>
         <v>55000</v>
       </c>
     </row>
@@ -1154,7 +1158,7 @@
         <v>25000</v>
       </c>
       <c r="D7" s="7">
-        <f>D6+C7</f>
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
@@ -1169,7 +1173,7 @@
         <v>20000</v>
       </c>
       <c r="D8" s="3">
-        <f>D7+C8</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
@@ -1184,7 +1188,7 @@
         <v>-180</v>
       </c>
       <c r="D9" s="3">
-        <f>D8+C9</f>
+        <f t="shared" si="0"/>
         <v>99820</v>
       </c>
     </row>
@@ -1199,7 +1203,7 @@
         <v>-780</v>
       </c>
       <c r="D10" s="3">
-        <f>D9+C10</f>
+        <f t="shared" si="0"/>
         <v>99040</v>
       </c>
     </row>
@@ -1214,7 +1218,7 @@
         <v>-500</v>
       </c>
       <c r="D11" s="3">
-        <f>D10+C11</f>
+        <f t="shared" si="0"/>
         <v>98540</v>
       </c>
     </row>
@@ -1229,7 +1233,7 @@
         <v>-3800</v>
       </c>
       <c r="D12" s="3">
-        <f>D11+C12</f>
+        <f t="shared" si="0"/>
         <v>94740</v>
       </c>
     </row>
@@ -1244,7 +1248,7 @@
         <v>-1000</v>
       </c>
       <c r="D13" s="3">
-        <f>D12+C13</f>
+        <f t="shared" si="0"/>
         <v>93740</v>
       </c>
     </row>
@@ -1259,7 +1263,7 @@
         <v>-800</v>
       </c>
       <c r="D14" s="3">
-        <f>D13+C14</f>
+        <f t="shared" si="0"/>
         <v>92940</v>
       </c>
     </row>
@@ -1274,7 +1278,7 @@
         <v>-1300</v>
       </c>
       <c r="D15" s="3">
-        <f>D14+C15</f>
+        <f t="shared" si="0"/>
         <v>91640</v>
       </c>
     </row>
@@ -1289,7 +1293,7 @@
         <v>-262</v>
       </c>
       <c r="D16" s="3">
-        <f>D15+C16</f>
+        <f t="shared" si="0"/>
         <v>91378</v>
       </c>
     </row>
@@ -1304,7 +1308,7 @@
         <v>-254.5</v>
       </c>
       <c r="D17" s="3">
-        <f>D16+C17</f>
+        <f t="shared" si="0"/>
         <v>91123.5</v>
       </c>
     </row>
@@ -1319,7 +1323,7 @@
         <v>-119</v>
       </c>
       <c r="D18" s="3">
-        <f>D17+C18</f>
+        <f t="shared" si="0"/>
         <v>91004.5</v>
       </c>
     </row>
@@ -1334,7 +1338,7 @@
         <v>-500</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D22" si="0">D18+C19</f>
+        <f t="shared" ref="D19:D22" si="1">D18+C19</f>
         <v>90504.5</v>
       </c>
     </row>
@@ -1349,7 +1353,7 @@
         <v>-200</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90304.5</v>
       </c>
     </row>
@@ -1364,7 +1368,7 @@
         <v>-500</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89804.5</v>
       </c>
     </row>
@@ -1379,8 +1383,23 @@
         <v>-100</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89704.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
+        <v>42454</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23" si="2">D22+C23</f>
+        <v>89204.5</v>
       </c>
     </row>
   </sheetData>

--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>移动端-尾款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计-尾款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,6 +1406,21 @@
         <v>89204.5</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6">
+        <v>42456</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-700</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24" si="3">D23+C24</f>
+        <v>88504.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>

--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -1,198 +1,297 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="账目明细" sheetId="4" r:id="rId1"/>
+    <sheet name="账目明细" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>账目明细表</t>
+  </si>
   <si>
     <t>日期</t>
   </si>
   <si>
+    <t>金额借贷说明</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
     <t>所剩余额</t>
   </si>
   <si>
-    <t>金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额借贷说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>启动资金注资 - 周行</t>
   </si>
   <si>
     <t>启动资金注资 - 严飞</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动资金注资 - 周行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>启动资金注资 - 戴伟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>启动资金注资 - 代雷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>域名ycg.im</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>域名yaocai.pro</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前端外包-移动端-首款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公司注册+半年代税</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前端外包-移动端-交付页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>视觉设计-首款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PC端前端外包-首款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>严飞武汉去上海</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>严飞上海回武汉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>严飞去上海第1晚住宿</t>
   </si>
   <si>
     <t>戴伟往返亳州-高铁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>戴伟往返亳州-开车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>戴伟、严飞上海住宿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>闪达短信通道试用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>严飞去上海第1晚住宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账目明细表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>移动端-尾款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计-尾款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信认证</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <name val="黑体"/>
-      <family val="3"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,10 +301,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -214,29 +494,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -245,80 +534,350 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -398,23 +957,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,23 +992,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,27 +1134,24 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="2" customWidth="1"/>
     <col min="5" max="254" width="9" style="1"/>
@@ -1076,357 +1598,372 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
         <v>42430</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>20000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
         <v>42430</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
         <v>35000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <f t="shared" ref="D6:D18" si="0">D5+C6</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
         <v>42430</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
         <v>25000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
         <v>42430</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14">
         <v>20000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
         <v>42334</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14">
         <v>-180</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>99820</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
         <v>42334</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14">
         <v>-780</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>99040</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
         <v>42395</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14">
         <v>-500</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>98540</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
         <v>42396</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14">
         <v>-3800</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>94740</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4">
+      <c r="A13" s="8">
         <v>42404</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14">
         <v>-1000</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>93740</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
         <v>42424</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14">
         <v>-800</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>92940</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
         <v>42426</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14">
         <v>-1300</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>91640</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
         <v>42423</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14">
         <v>-262</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>91378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>42425</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14">
         <v>-254.5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>91123.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>42423</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14">
         <v>-119</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>91004.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6">
+      <c r="A19" s="8">
         <v>42421</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="14">
         <v>-500</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="11">
         <f t="shared" ref="D19:D22" si="1">D18+C19</f>
         <v>90504.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>42421</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14">
         <v>-200</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>90304.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>42425</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="14">
         <v>-500</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>89804.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>42430</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="14">
         <v>-100</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>89704.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>42454</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="14">
         <v>-500</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="11">
         <f t="shared" ref="D23" si="2">D22+C23</f>
         <v>89204.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
         <v>42456</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="14">
         <v>-700</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="11">
         <f t="shared" ref="D24" si="3">D23+C24</f>
         <v>88504.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8">
+        <v>42457</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="14">
+        <v>-300</v>
+      </c>
+      <c r="D25" s="11">
+        <f>D24+C25</f>
+        <v>88204.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="账目明细" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>账目明细表</t>
   </si>
@@ -92,20 +92,20 @@
   </si>
   <si>
     <t>微信认证</t>
+  </si>
+  <si>
+    <t>阿里云服务器购买</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,7 @@
     <font>
       <sz val="18"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -141,157 +142,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,188 +167,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -530,354 +213,78 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1138,17 +545,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
@@ -1598,372 +1003,387 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="20.25" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
         <v>42430</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>20000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
         <v>42430</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>35000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" ref="D6:D18" si="0">D5+C6</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
         <v>42430</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>25000</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
         <v>42430</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>20000</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
         <v>42334</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>-180</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>99820</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
         <v>42334</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>-780</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>99040</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
         <v>42395</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>-500</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>98540</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
         <v>42396</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>-3800</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>94740</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
         <v>42404</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>-1000</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>93740</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8">
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
         <v>42424</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>-800</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>92940</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
         <v>42426</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>-1300</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>91640</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
         <v>42423</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>-262</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>91378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>42425</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>-254.5</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>91123.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>42423</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>-119</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>91004.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>42421</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>-500</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <f t="shared" ref="D19:D22" si="1">D18+C19</f>
         <v>90504.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>42421</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>-200</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>90304.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>42425</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>-500</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>89804.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>42430</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>-100</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <f t="shared" si="1"/>
         <v>89704.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>42454</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>-500</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <f t="shared" ref="D23" si="2">D22+C23</f>
         <v>89204.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>42456</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>-700</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <f t="shared" ref="D24" si="3">D23+C24</f>
         <v>88504.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>42457</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>-300</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <f>D24+C25</f>
         <v>88204.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6">
+        <v>42461</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-9243</v>
+      </c>
+      <c r="D26" s="9">
+        <f>D25+C26</f>
+        <v>78961.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8385"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="账目明细" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>账目明细表</t>
   </si>
@@ -95,17 +95,23 @@
   </si>
   <si>
     <t>阿里云服务器购买</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>严飞亳州出差</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +122,6 @@
     <font>
       <sz val="18"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -142,19 +147,157 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +310,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -213,78 +536,357 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -545,15 +1147,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
@@ -1003,387 +1607,402 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1" spans="1:4">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
         <v>42430</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>20000</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
         <v>42430</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>35000</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <f t="shared" ref="D6:D18" si="0">D5+C6</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
         <v>42430</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="12">
         <v>25000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
         <v>42430</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <v>20000</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
         <v>42334</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>-180</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>99820</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
         <v>42334</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>-780</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>99040</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
         <v>42395</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>-500</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>98540</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
         <v>42396</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="14">
         <v>-3800</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>94740</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4">
+      <c r="A13" s="8">
         <v>42404</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <v>-1000</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>93740</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
         <v>42424</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <v>-800</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>92940</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
         <v>42426</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="14">
         <v>-1300</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>91640</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
         <v>42423</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <v>-262</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>91378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>42425</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="14">
         <v>-254.5</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>91123.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>42423</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <v>-119</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>91004.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6">
+      <c r="A19" s="8">
         <v>42421</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="14">
         <v>-500</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <f t="shared" ref="D19:D22" si="1">D18+C19</f>
         <v>90504.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>42421</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="14">
         <v>-200</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>90304.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>42425</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="14">
         <v>-500</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>89804.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>42430</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="14">
         <v>-100</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>89704.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>42454</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="14">
         <v>-500</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <f t="shared" ref="D23" si="2">D22+C23</f>
         <v>89204.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
         <v>42456</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="14">
         <v>-700</v>
       </c>
-      <c r="D24" s="9">
-        <f t="shared" ref="D24" si="3">D23+C24</f>
+      <c r="D24" s="11">
+        <f t="shared" ref="D24:D26" si="3">D23+C24</f>
         <v>88504.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6">
+      <c r="A25" s="8">
         <v>42457</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="14">
         <v>-300</v>
       </c>
-      <c r="D25" s="9">
-        <f>D24+C25</f>
+      <c r="D25" s="11">
+        <f t="shared" si="3"/>
         <v>88204.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>42461</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="14">
         <v>-9243</v>
       </c>
-      <c r="D26" s="9">
-        <f>D25+C26</f>
+      <c r="D26" s="11">
+        <f t="shared" si="3"/>
         <v>78961.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8">
+        <v>42464</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="14">
+        <v>-584</v>
+      </c>
+      <c r="D27" s="11">
+        <f>D26+C27</f>
+        <v>78377.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>账目明细表</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>严飞亳州出差</t>
+  </si>
+  <si>
+    <t>周雄军尾款</t>
   </si>
 </sst>
 </file>
@@ -107,9 +110,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -147,7 +150,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,8 +186,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,9 +242,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,13 +265,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -230,30 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,14 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -282,14 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -312,12 +315,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,37 +405,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,121 +477,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,11 +540,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +590,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,36 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -623,164 +637,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1149,12 +1152,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1948,7 +1951,7 @@
         <v>-700</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" ref="D24:D26" si="3">D23+C24</f>
+        <f t="shared" ref="D24:D27" si="3">D23+C24</f>
         <v>88504.5</v>
       </c>
     </row>
@@ -1986,15 +1989,30 @@
       <c r="A27" s="8">
         <v>42464</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="14">
         <v>-584</v>
       </c>
       <c r="D27" s="11">
-        <f>D26+C27</f>
+        <f t="shared" si="3"/>
         <v>78377.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8">
+        <v>42476</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="14">
+        <v>-1300</v>
+      </c>
+      <c r="D28" s="11">
+        <f>D27+C28</f>
+        <v>77077.5</v>
       </c>
     </row>
   </sheetData>

--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>账目明细表</t>
   </si>
@@ -101,6 +101,45 @@
   </si>
   <si>
     <t>周雄军尾款</t>
+  </si>
+  <si>
+    <t>拍照片的写真纸25*2</t>
+  </si>
+  <si>
+    <t>办公椅150*8</t>
+  </si>
+  <si>
+    <t>烧水壶</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>纯净水10桶和押金</t>
+  </si>
+  <si>
+    <t>纸巾纸杯19，纸篓垃圾袋25</t>
+  </si>
+  <si>
+    <t>4月20日汝岩、马义可、石雷、王艳昭</t>
+  </si>
+  <si>
+    <t>4月24日梁坤、汝岩、马义可、石雷、王艳昭</t>
+  </si>
+  <si>
+    <t>预存话费200、数据业务连接费200、插板40</t>
+  </si>
+  <si>
+    <t>笔记本、水笔、打印纸</t>
+  </si>
+  <si>
+    <t>换锁芯、配钥匙</t>
+  </si>
+  <si>
+    <t>网上购买A4硬胶套和磁铁</t>
+  </si>
+  <si>
+    <t>小型会议桌和储物柜</t>
   </si>
 </sst>
 </file>
@@ -108,11 +147,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -149,10 +188,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,44 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -315,6 +354,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,24 +391,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,28 +681,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,40 +711,40 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,10 +756,10 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,22 +777,22 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,16 +801,16 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,7 +819,7 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,12 +1191,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1951,7 +1990,7 @@
         <v>-700</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" ref="D24:D27" si="3">D23+C24</f>
+        <f t="shared" ref="D24:D28" si="3">D23+C24</f>
         <v>88504.5</v>
       </c>
     </row>
@@ -2004,15 +2043,210 @@
       <c r="A28" s="8">
         <v>42476</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="14">
         <v>-1300</v>
       </c>
       <c r="D28" s="11">
-        <f>D27+C28</f>
+        <f t="shared" si="3"/>
         <v>77077.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="14">
+        <v>-50</v>
+      </c>
+      <c r="D29" s="11">
+        <f>D28+C29</f>
+        <v>77027.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="14">
+        <v>-1200</v>
+      </c>
+      <c r="D30" s="11">
+        <f>D29+C30</f>
+        <v>75827.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="14">
+        <v>-79</v>
+      </c>
+      <c r="D31" s="11">
+        <f>D30+C31</f>
+        <v>75748.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="14">
+        <v>-99</v>
+      </c>
+      <c r="D32" s="11">
+        <f>D31+C32</f>
+        <v>75649.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="14">
+        <v>-130</v>
+      </c>
+      <c r="D33" s="11">
+        <f>D32+C33</f>
+        <v>75519.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="14">
+        <v>-44</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" ref="D34:D42" si="4">D33+C34</f>
+        <v>75475.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="14">
+        <v>-155</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="4"/>
+        <v>75320.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="14">
+        <v>-210</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="4"/>
+        <v>75110.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8">
+        <v>42490</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="14">
+        <v>-440</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="4"/>
+        <v>74670.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="14">
+        <v>-55</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="4"/>
+        <v>74615.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="14">
+        <v>-120</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="4"/>
+        <v>74495.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="14">
+        <v>-345</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="4"/>
+        <v>74150.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8">
+        <v>42486</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="14">
+        <v>-2440</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="shared" si="4"/>
+        <v>71710.5</v>
       </c>
     </row>
   </sheetData>

--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>账目明细表</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>小型会议桌和储物柜</t>
+  </si>
+  <si>
+    <t>地税报道UKey及数字证书</t>
+  </si>
+  <si>
+    <t>yaocai.pro域名转移至西域数码并办理过户到公司名下</t>
+  </si>
+  <si>
+    <t>邮寄备案资料到阿里云</t>
+  </si>
+  <si>
+    <t>2016/4/39</t>
+  </si>
+  <si>
+    <t>严飞和周航到亳州见汪宗火车票(31.5+50.5)*2*2+住宿128*3</t>
+  </si>
+  <si>
+    <t>改图网名片印刷26/两盒*7人+设计费27</t>
   </si>
 </sst>
 </file>
@@ -150,8 +168,8 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -827,7 +845,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +892,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1191,12 +1212,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:D41"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1990,7 +2011,7 @@
         <v>-700</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" ref="D24:D28" si="3">D23+C24</f>
+        <f t="shared" ref="D24:D33" si="3">D23+C24</f>
         <v>88504.5</v>
       </c>
     </row>
@@ -2058,14 +2079,14 @@
       <c r="A29" s="8">
         <v>42486</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="14">
         <v>-50</v>
       </c>
       <c r="D29" s="11">
-        <f>D28+C29</f>
+        <f t="shared" si="3"/>
         <v>77027.5</v>
       </c>
     </row>
@@ -2073,14 +2094,14 @@
       <c r="A30" s="8">
         <v>42486</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="14">
         <v>-1200</v>
       </c>
       <c r="D30" s="11">
-        <f>D29+C30</f>
+        <f t="shared" si="3"/>
         <v>75827.5</v>
       </c>
     </row>
@@ -2088,14 +2109,14 @@
       <c r="A31" s="8">
         <v>42486</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="14">
         <v>-79</v>
       </c>
       <c r="D31" s="11">
-        <f>D30+C31</f>
+        <f t="shared" si="3"/>
         <v>75748.5</v>
       </c>
     </row>
@@ -2103,14 +2124,14 @@
       <c r="A32" s="8">
         <v>42486</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="14">
         <v>-99</v>
       </c>
       <c r="D32" s="11">
-        <f>D31+C32</f>
+        <f t="shared" si="3"/>
         <v>75649.5</v>
       </c>
     </row>
@@ -2118,14 +2139,14 @@
       <c r="A33" s="8">
         <v>42486</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="14">
         <v>-130</v>
       </c>
       <c r="D33" s="11">
-        <f>D32+C33</f>
+        <f t="shared" si="3"/>
         <v>75519.5</v>
       </c>
     </row>
@@ -2133,7 +2154,7 @@
       <c r="A34" s="8">
         <v>42486</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="14">
@@ -2148,7 +2169,7 @@
       <c r="A35" s="8">
         <v>42486</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="14">
@@ -2163,7 +2184,7 @@
       <c r="A36" s="8">
         <v>42486</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="14">
@@ -2178,7 +2199,7 @@
       <c r="A37" s="8">
         <v>42490</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="14">
@@ -2193,7 +2214,7 @@
       <c r="A38" s="8">
         <v>42486</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="14">
@@ -2208,7 +2229,7 @@
       <c r="A39" s="8">
         <v>42486</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="14">
@@ -2223,7 +2244,7 @@
       <c r="A40" s="8">
         <v>42486</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="14">
@@ -2238,7 +2259,7 @@
       <c r="A41" s="8">
         <v>42486</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="14">
@@ -2247,6 +2268,81 @@
       <c r="D41" s="11">
         <f t="shared" si="4"/>
         <v>71710.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8">
+        <v>42489</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="14">
+        <v>-220</v>
+      </c>
+      <c r="D42" s="11">
+        <f>D41+C42</f>
+        <v>71490.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8">
+        <v>42489</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="14">
+        <v>-90</v>
+      </c>
+      <c r="D43" s="11">
+        <f>D42+C43</f>
+        <v>71400.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8">
+        <v>42489</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="14">
+        <v>-7</v>
+      </c>
+      <c r="D44" s="11">
+        <f>D43+C44</f>
+        <v>71393.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="14">
+        <v>-712</v>
+      </c>
+      <c r="D45" s="11">
+        <f>D44+C45</f>
+        <v>70681.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8">
+        <v>42489</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="14">
+        <v>-209</v>
+      </c>
+      <c r="D46" s="11">
+        <f>D45+C46</f>
+        <v>70472.5</v>
       </c>
     </row>
   </sheetData>

--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>账目明细表</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>改图网名片印刷26/两盒*7人+设计费27</t>
+  </si>
+  <si>
+    <t>短信280</t>
   </si>
 </sst>
 </file>
@@ -166,10 +169,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -206,17 +209,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,29 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -372,6 +375,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,30 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,28 +702,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,40 +732,40 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,10 +777,10 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,22 +798,22 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,16 +822,16 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,7 +840,7 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,10 +894,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1212,12 +1215,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2161,7 +2164,7 @@
         <v>-44</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" ref="D34:D42" si="4">D33+C34</f>
+        <f t="shared" ref="D34:D46" si="4">D33+C34</f>
         <v>75475.5</v>
       </c>
     </row>
@@ -2274,14 +2277,14 @@
       <c r="A42" s="8">
         <v>42489</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="14">
         <v>-220</v>
       </c>
       <c r="D42" s="11">
-        <f>D41+C42</f>
+        <f t="shared" si="4"/>
         <v>71490.5</v>
       </c>
     </row>
@@ -2289,14 +2292,14 @@
       <c r="A43" s="8">
         <v>42489</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="14">
         <v>-90</v>
       </c>
       <c r="D43" s="11">
-        <f>D42+C43</f>
+        <f t="shared" si="4"/>
         <v>71400.5</v>
       </c>
     </row>
@@ -2304,29 +2307,29 @@
       <c r="A44" s="8">
         <v>42489</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="14">
         <v>-7</v>
       </c>
       <c r="D44" s="11">
-        <f>D43+C44</f>
+        <f t="shared" si="4"/>
         <v>71393.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="14">
         <v>-712</v>
       </c>
       <c r="D45" s="11">
-        <f>D44+C45</f>
+        <f t="shared" si="4"/>
         <v>70681.5</v>
       </c>
     </row>
@@ -2334,15 +2337,30 @@
       <c r="A46" s="8">
         <v>42489</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="14">
         <v>-209</v>
       </c>
       <c r="D46" s="11">
-        <f>D45+C46</f>
+        <f t="shared" si="4"/>
         <v>70472.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8">
+        <v>42493</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="14">
+        <v>-280</v>
+      </c>
+      <c r="D47" s="11">
+        <f>D46+C47</f>
+        <v>70192.5</v>
       </c>
     </row>
   </sheetData>

--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="账目明细" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>账目明细表</t>
   </si>
@@ -161,20 +161,32 @@
   </si>
   <si>
     <t>短信280</t>
+  </si>
+  <si>
+    <r>
+      <t>短信5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +197,7 @@
     <font>
       <sz val="18"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -210,157 +223,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,188 +248,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -599,360 +294,81 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1213,17 +629,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
@@ -1673,702 +1087,717 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" ht="20.25" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
         <v>42430</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>20000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
         <v>42430</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>35000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" ref="D6:D18" si="0">D5+C6</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
         <v>42430</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>25000</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
         <v>42430</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>20000</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
         <v>42334</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>-180</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>99820</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
         <v>42334</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>-780</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>99040</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
         <v>42395</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>-500</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>98540</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
         <v>42396</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>-3800</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>94740</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
         <v>42404</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>-1000</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>93740</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8">
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
         <v>42424</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>-800</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>92940</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
         <v>42426</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>-1300</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>91640</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
         <v>42423</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>-262</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>91378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>42425</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>-254.5</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>91123.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>42423</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>-119</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>91004.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>42421</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>-500</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <f t="shared" ref="D19:D22" si="1">D18+C19</f>
         <v>90504.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>42421</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>-200</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>90304.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>42425</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>-500</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>89804.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>42430</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>-100</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <f t="shared" si="1"/>
         <v>89704.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>42454</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>-500</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <f t="shared" ref="D23" si="2">D22+C23</f>
         <v>89204.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>42456</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>-700</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <f t="shared" ref="D24:D33" si="3">D23+C24</f>
         <v>88504.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>42457</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>-300</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <f t="shared" si="3"/>
         <v>88204.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>42461</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>-9243</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <f t="shared" si="3"/>
         <v>78961.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>42464</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>-584</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <f t="shared" si="3"/>
         <v>78377.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>42476</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>-1300</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <f t="shared" si="3"/>
         <v>77077.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>42486</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="12">
         <v>-50</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <f t="shared" si="3"/>
         <v>77027.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>42486</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <v>-1200</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <f t="shared" si="3"/>
         <v>75827.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>42486</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>-79</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <f t="shared" si="3"/>
         <v>75748.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>42486</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>-99</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <f t="shared" si="3"/>
         <v>75649.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>42486</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>-130</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <f t="shared" si="3"/>
         <v>75519.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>42486</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>-44</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <f t="shared" ref="D34:D46" si="4">D33+C34</f>
         <v>75475.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>42486</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>-155</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <f t="shared" si="4"/>
         <v>75320.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>42486</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <v>-210</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <f t="shared" si="4"/>
         <v>75110.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>42490</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>-440</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <f t="shared" si="4"/>
         <v>74670.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>42486</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="12">
         <v>-55</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <f t="shared" si="4"/>
         <v>74615.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <v>42486</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="12">
         <v>-120</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <f t="shared" si="4"/>
         <v>74495.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>42486</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="12">
         <v>-345</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <f t="shared" si="4"/>
         <v>74150.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>42486</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="12">
         <v>-2440</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <f t="shared" si="4"/>
         <v>71710.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>42489</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="12">
         <v>-220</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <f t="shared" si="4"/>
         <v>71490.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>42489</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="12">
         <v>-90</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <f t="shared" si="4"/>
         <v>71400.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>42489</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="12">
         <v>-7</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <f t="shared" si="4"/>
         <v>71393.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="12">
         <v>-712</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <f t="shared" si="4"/>
         <v>70681.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>42489</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="12">
         <v>-209</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <f t="shared" si="4"/>
         <v>70472.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <v>42493</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>-280</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <f>D46+C47</f>
         <v>70192.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6">
+        <v>42500</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="12">
+        <v>-500</v>
+      </c>
+      <c r="D48" s="9">
+        <f>D47+C48</f>
+        <v>69692.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8385"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="账目明细" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>账目明细表</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>短信5</t>
     </r>
     <r>
@@ -172,21 +178,29 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>严飞去亳州火车票（31.5+50.5）*2</t>
+  </si>
+  <si>
+    <t>严飞去亳州住宿128*3+70+85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +211,6 @@
     <font>
       <sz val="18"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -223,19 +236,163 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +405,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -294,81 +631,360 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -629,15 +1245,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.25" style="1" customWidth="1"/>
@@ -1087,717 +1705,747 @@
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1" spans="1:4">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
         <v>42430</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>20000</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
         <v>42430</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>35000</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <f t="shared" ref="D6:D18" si="0">D5+C6</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
         <v>42430</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="12">
         <v>25000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
         <v>42430</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <v>20000</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
         <v>42334</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>-180</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>99820</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
         <v>42334</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>-780</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>99040</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
         <v>42395</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>-500</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>98540</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
         <v>42396</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="14">
         <v>-3800</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>94740</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4">
+      <c r="A13" s="8">
         <v>42404</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <v>-1000</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>93740</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4">
+      <c r="A14" s="8">
         <v>42424</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <v>-800</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>92940</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
         <v>42426</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="14">
         <v>-1300</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>91640</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
         <v>42423</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <v>-262</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>91378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>42425</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="14">
         <v>-254.5</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>91123.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>42423</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <v>-119</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>91004.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6">
+      <c r="A19" s="8">
         <v>42421</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="14">
         <v>-500</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <f t="shared" ref="D19:D22" si="1">D18+C19</f>
         <v>90504.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>42421</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="14">
         <v>-200</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>90304.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>42425</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="14">
         <v>-500</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>89804.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>42430</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="14">
         <v>-100</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>89704.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>42454</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="14">
         <v>-500</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <f t="shared" ref="D23" si="2">D22+C23</f>
         <v>89204.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
         <v>42456</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="14">
         <v>-700</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <f t="shared" ref="D24:D33" si="3">D23+C24</f>
         <v>88504.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6">
+      <c r="A25" s="8">
         <v>42457</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="14">
         <v>-300</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="11">
         <f t="shared" si="3"/>
         <v>88204.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>42461</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="14">
         <v>-9243</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="11">
         <f t="shared" si="3"/>
         <v>78961.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6">
+      <c r="A27" s="8">
         <v>42464</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="14">
         <v>-584</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="11">
         <f t="shared" si="3"/>
         <v>78377.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6">
+      <c r="A28" s="8">
         <v>42476</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="14">
         <v>-1300</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11">
         <f t="shared" si="3"/>
         <v>77077.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6">
+      <c r="A29" s="8">
         <v>42486</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="14">
         <v>-50</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="11">
         <f t="shared" si="3"/>
         <v>77027.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6">
+      <c r="A30" s="8">
         <v>42486</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="14">
         <v>-1200</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <f t="shared" si="3"/>
         <v>75827.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6">
+      <c r="A31" s="8">
         <v>42486</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="14">
         <v>-79</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="11">
         <f t="shared" si="3"/>
         <v>75748.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6">
+      <c r="A32" s="8">
         <v>42486</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="14">
         <v>-99</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="11">
         <f t="shared" si="3"/>
         <v>75649.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6">
+      <c r="A33" s="8">
         <v>42486</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="14">
         <v>-130</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="11">
         <f t="shared" si="3"/>
         <v>75519.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6">
+      <c r="A34" s="8">
         <v>42486</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="14">
         <v>-44</v>
       </c>
-      <c r="D34" s="9">
-        <f t="shared" ref="D34:D46" si="4">D33+C34</f>
+      <c r="D34" s="11">
+        <f t="shared" ref="D34:D48" si="4">D33+C34</f>
         <v>75475.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6">
+      <c r="A35" s="8">
         <v>42486</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="14">
         <v>-155</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="11">
         <f t="shared" si="4"/>
         <v>75320.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6">
+      <c r="A36" s="8">
         <v>42486</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="14">
         <v>-210</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="11">
         <f t="shared" si="4"/>
         <v>75110.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6">
+      <c r="A37" s="8">
         <v>42490</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="14">
         <v>-440</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="11">
         <f t="shared" si="4"/>
         <v>74670.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6">
+      <c r="A38" s="8">
         <v>42486</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="14">
         <v>-55</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="11">
         <f t="shared" si="4"/>
         <v>74615.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6">
+      <c r="A39" s="8">
         <v>42486</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="14">
         <v>-120</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="11">
         <f t="shared" si="4"/>
         <v>74495.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6">
+      <c r="A40" s="8">
         <v>42486</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="14">
         <v>-345</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="11">
         <f t="shared" si="4"/>
         <v>74150.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6">
+      <c r="A41" s="8">
         <v>42486</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="14">
         <v>-2440</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="11">
         <f t="shared" si="4"/>
         <v>71710.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6">
+      <c r="A42" s="8">
         <v>42489</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="14">
         <v>-220</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="11">
         <f t="shared" si="4"/>
         <v>71490.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6">
+      <c r="A43" s="8">
         <v>42489</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="14">
         <v>-90</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="11">
         <f t="shared" si="4"/>
         <v>71400.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6">
+      <c r="A44" s="8">
         <v>42489</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="14">
         <v>-7</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="11">
         <f t="shared" si="4"/>
         <v>71393.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="14">
         <v>-712</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="11">
         <f t="shared" si="4"/>
         <v>70681.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6">
+      <c r="A46" s="8">
         <v>42489</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="14">
         <v>-209</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="11">
         <f t="shared" si="4"/>
         <v>70472.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6">
+      <c r="A47" s="8">
         <v>42493</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="14">
         <v>-280</v>
       </c>
-      <c r="D47" s="9">
-        <f>D46+C47</f>
+      <c r="D47" s="11">
+        <f t="shared" si="4"/>
         <v>70192.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6">
+      <c r="A48" s="8">
         <v>42500</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="14">
         <v>-500</v>
       </c>
-      <c r="D48" s="9">
-        <f>D47+C48</f>
+      <c r="D48" s="11">
+        <f t="shared" si="4"/>
         <v>69692.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8">
+        <v>42504</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="14">
+        <v>-164</v>
+      </c>
+      <c r="D49" s="11">
+        <f>D48+C49</f>
+        <v>69528.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8">
+        <v>42504</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="14">
+        <v>-539</v>
+      </c>
+      <c r="D50" s="11">
+        <f>D49+C50</f>
+        <v>68989.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/file/账目.xlsx
+++ b/file/账目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>账目明细表</t>
   </si>
@@ -188,16 +188,19 @@
   <si>
     <t>严飞去亳州住宿128*3+70+85</t>
   </si>
+  <si>
+    <t>汪总入金20万</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1247,12 +1250,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2196,7 +2199,7 @@
         <v>-44</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" ref="D34:D48" si="4">D33+C34</f>
+        <f t="shared" ref="D34:D50" si="4">D33+C34</f>
         <v>75475.5</v>
       </c>
     </row>
@@ -2414,14 +2417,14 @@
       <c r="A49" s="8">
         <v>42504</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="14">
         <v>-164</v>
       </c>
       <c r="D49" s="11">
-        <f>D48+C49</f>
+        <f t="shared" si="4"/>
         <v>69528.5</v>
       </c>
     </row>
@@ -2429,15 +2432,30 @@
       <c r="A50" s="8">
         <v>42504</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="14">
         <v>-539</v>
       </c>
       <c r="D50" s="11">
-        <f>D49+C50</f>
+        <f t="shared" si="4"/>
         <v>68989.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8">
+        <v>42510</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="14">
+        <v>200000</v>
+      </c>
+      <c r="D51" s="11">
+        <f>D50+C51</f>
+        <v>268989.5</v>
       </c>
     </row>
   </sheetData>
